--- a/output/frat/fRAT_check_2_solution_embeddings.xlsx
+++ b/output/frat/fRAT_check_2_solution_embeddings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>top_embedding</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>relation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Accuracy</t>
         </is>
@@ -499,10 +504,15 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>question is "related_to" to talk | question is "related_to, form_of" to questions | question is "related_to" to talking | question is "motivated_by_goal" to send_e_mail | question is "related_to" to type | question is "desires, related_to, distinct_from, antonym" to answer | question is "related_to" to answered | question is "related_to" to phrase | question is "related_to" to sentences | question is "related_to, distinct_from, antonym" to statement | question is "related_to" to conversation | question is "is_a, related_to" to sentence | question is "related_to" to slambook | question is "related_to" to request | question is "synonym, related_to, manner_of" to ask | question is "is_a, synonym, related_to" to subject | question is "related_to" to answering | question is "synonym, related_to" to inquiry | question is "related_to" to call | question is "related_to" to response | question is "related_to" to rescript | question is "related_to" to speech | question is "related_to" to say | reply is "related_to" to talk | reply is "related_to" to questions | reply is "related_to" to talking | reply is "has_subevent" to send_e_mail | reply is "related_to" to type | reply is "is_a, antonym, related_to, synonym" to answer | reply is "related_to" to answered | reply is "related_to" to phrase | reply is "related_to" to sentences | reply is "related_to" to statement | reply is "related_to" to conversation | reply is "related_to" to sentence | reply is "related_to" to slambook | reply is "antonym, related_to" to request | reply is "antonym, distinct_from" to ask | reply is "related_to" to subject | reply is "related_to" to answering | reply is "antonym" to inquiry | reply is "related_to" to call | reply is "related_to, synonym, distinct_from" to response | reply is "related_to" to rescript | reply is "related_to" to speech | reply is "related_to" to say</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -533,10 +543,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>question is "causes_desire" to think | question is "desires, related_to, distinct_from, antonym" to answer | question is "related_to, synonym" to issue | question is "distinct_from, related_to, antonym" to reply | question is "related_to, distinct_from, antonym" to statement | question is "is_a, related_to" to problem | solution is "has_subevent" to think | solution is "synonym, related_to" to answer | solution is "related_to" to issue | solution is "related_to" to reply | solution is "is_a" to statement | solution is "distinct_from, antonym, related_to" to problem</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -567,10 +582,15 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>reply is "is_a, antonym, related_to, synonym" to answer | reply is "related_to" to statement | solution is "synonym, related_to" to answer | solution is "is_a" to statement</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -593,6 +613,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -615,6 +636,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -645,10 +667,15 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>cry</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>sob is "related_to" to weeping | sob is "derived_from, related_to" to sobful | sob is "synonym, related_to, manner_of" to cry | sob is "related_to" to heavy_crying | sob is "related_to" to loud_crying | sob is "related_to, is_a" to crying | sob is "related_to" to heavy | sob is "related_to" to loud | weep is "related_to, form_of" to weeping | weep is "related_to" to sobful | weep is "synonym, related_to" to cry | weep is "related_to" to heavy_crying | weep is "related_to" to loud_crying | weep is "related_to" to crying | weep is "related_to" to heavy | weep is "related_to" to loud</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -679,10 +706,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>deer</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>antlers is "related_to" to dear | antlers is "related_to" to deer | doe is "related_to" to dear | doe is "is_a, related_to" to deer</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -713,10 +745,15 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>deer</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>antlers is "related_to" to deer | fawn is "related_to, is_a" to deer</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -747,10 +784,15 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>deer</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>doe is "related_to" to young | doe is "related_to" to young_deer | doe is "synonym" to hind | doe is "is_a, related_to" to deer | fawn is "related_to" to young | fawn is "related_to" to young_deer | fawn is "distinct_from" to hind | fawn is "related_to, is_a" to deer</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -781,10 +823,15 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>bud is "related_to, is_a" to flower | bud is "related_to" to plant | bud is "related_to" to petals | dandelion is "related_to, is_a" to flower | dandelion is "related_to" to plant | dandelion is "related_to" to petals</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -815,10 +862,15 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>bud is "related_to, is_a" to flower | bud is "related_to" to plant | petals is "related_to" to flower | petals is "related_to" to plant</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -849,10 +901,15 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>flower</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>dandelion is "related_to, is_a" to flower | dandelion is "related_to" to plant | petals is "related_to" to flower | petals is "related_to" to plant</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -883,10 +940,15 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>filly</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>colt is "related_to" to filly | colt is "related_to" to stallion | colt is "related_to, is_a" to horse | colt is "related_to, is_a" to foal | mare is "is_a, related_to" to filly | mare is "related_to, antonym" to stallion | mare is "related_to, part_of, is_a" to horse | mare is "related_to, similar_to" to foal</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,10 +979,15 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>horse</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>colt is "related_to, is_a" to horse | unicorn is "related_to" to horse</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -951,10 +1018,15 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>horse</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>mare is "is_a" to animal | mare is "related_to, part_of, is_a" to horse | mare is "is_a" to equine | unicorn is "is_a" to animal | unicorn is "related_to" to horse | unicorn is "is_a" to equine</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -977,6 +1049,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1007,10 +1080,15 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>king</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>crown is "derived_from" to crown_princess | crown is "related_to" to king | crown is "related_to" to often | crown is "related_to" to kind | crown is "related_to" to monarch | throne is "related_to" to crown_princess | throne is "related_to" to king | throne is "related_to" to often | throne is "related_to" to kind | throne is "related_to" to monarch</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1033,6 +1111,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1063,10 +1142,15 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>mathematics</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>algebra is "related_to" to geometry | algebra is "has_context" to unit | algebra is "related_to" to class | algebra is "related_to" to difficult_math | algebra is "has_context" to analysis | algebra is "related_to" to difficult | algebra is "related_to" to advanced | algebra is "related_to" to math_subject | algebra is "related_to" to numbers | algebra is "related_to" to math | algebra is "related_to" to slope | algebra is "related_to" to subject | algebra is "is_a" to pure_mathematics | algebra is "related_to" to higher_math | algebra is "related_to" to school | algebra is "related_to, has_context" to mathematics | algebra is "related_to" to higher | algebra is "related_to" to math_class | algebra is "has_context" to medicine | algebra is "related_to" to advanced_math | calculus is "related_to" to geometry | calculus is "related_to" to unit | calculus is "related_to" to class | calculus is "related_to" to difficult_math | calculus is "related_to, is_a" to analysis | calculus is "related_to, has_property" to difficult | calculus is "related_to" to advanced | calculus is "related_to" to math_subject | calculus is "related_to" to numbers | calculus is "related_to" to math | calculus is "related_to" to slope | calculus is "related_to" to subject | calculus is "is_a" to pure_mathematics | calculus is "related_to" to higher_math | calculus is "related_to" to school | calculus is "related_to, has_context" to mathematics | calculus is "related_to" to higher | calculus is "related_to" to math_class | calculus is "has_context" to medicine | calculus is "related_to" to advanced_math</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1097,10 +1181,15 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>mathematics</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>algebra is "related_to" to geometry | algebra is "is_a" to pure_mathematics | algebra is "related_to, has_context" to mathematics | trigonometry is "related_to" to geometry | trigonometry is "is_a" to pure_mathematics | trigonometry is "related_to, has_context" to mathematics</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1131,10 +1220,15 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>mathematics</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>calculus is "related_to, has_context" to mathematics | calculus is "related_to" to geometry | calculus is "related_to" to calculation | calculus is "is_a" to pure_mathematics | calculus is "related_to" to sine | trigonometry is "related_to, has_context" to mathematics | trigonometry is "related_to" to geometry | trigonometry is "related_to" to calculation | trigonometry is "is_a" to pure_mathematics | trigonometry is "has_context, related_to" to sine</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1165,10 +1259,15 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>lever</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>pedal is "related_to" to break | pedal is "related_to, is_a" to lever | pull is "related_to" to break | pull is "related_to" to lever</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1191,6 +1290,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1221,10 +1321,15 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>push</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>pull is "manner_of, related_to, is_a" to force | pull is "has_context" to slang | pull is "antonym, related_to" to push | shove is "related_to" to force | shove is "has_context" to slang | shove is "manner_of, is_a, related_to" to push</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1255,10 +1360,15 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>turn</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>clockwise is "related_to" to right_handed | clockwise is "related_to" to turn | left is "related_to" to right_handed | left is "related_to, is_a" to turn</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1281,6 +1391,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1311,10 +1422,15 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>left is "distinct_from, related_to, antonym" to right | left is "related_to" to sinister | left is "is_a" to position | left is "related_to" to side | left is "related_to" to sinistrous | left is "related_to" to sinistrously | wrong is "distinct_from, related_to, has_property, antonym" to right | wrong is "related_to" to sinister | wrong is "related_to" to position | wrong is "related_to" to side | wrong is "related_to" to sinistrous | wrong is "related_to" to sinistrously</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1345,10 +1461,15 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>sick</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>flu is "related_to" to sick | nauseous is "related_to" to sick</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1379,10 +1500,15 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>influenza</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>flu is "not_desires" to person | flu is "etymologically_related_to, similar_to, related_to, synonym, is_a" to influenza | flu is "related_to" to disease | virus is "not_desires" to person | virus is "is_a, related_to" to influenza | virus is "related_to, causes" to disease</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1413,10 +1539,15 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
+          <t>virose</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>nauseous is "related_to" to virose | virus is "etymologically_related_to" to virose</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1447,10 +1578,15 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>lunar</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>astronomy is "has_context" to iocaste | astronomy is "has_context" to lysithea | astronomy is "has_context" to hercules | astronomy is "has_context" to draconitic_month | astronomy is "has_context" to terminator | astronomy is "has_context" to tarvos | astronomy is "has_context" to lunar_occultation | astronomy is "has_context" to planum | astronomy is "has_context" to siamaq | astronomy is "has_context" to carme | astronomy is "has_context" to ariel | astronomy is "has_context" to hermippe | astronomy is "has_context" to annular_eclipse | astronomy is "has_context" to sun | astronomy is "has_context" to pasithee | astronomy is "has_context" to praxidike | astronomy is "has_context" to autonoe | astronomy is "has_context" to aegaeon | astronomy is "has_context" to nearside | astronomy is "has_context" to mercury | astronomy is "has_context" to hiʻiaka | astronomy is "has_context" to nutation | astronomy is "has_context, related_to" to star | astronomy is "has_context" to io | astronomy is "has_context" to hyrrokin | astronomy is "has_context" to herse | astronomy is "has_context" to ijiraq | astronomy is "has_context" to enceladus | astronomy is "has_context" to moonlet | astronomy is "has_context" to valetudo | astronomy is "has_context" to loge | astronomy is "has_context" to triton | astronomy is "has_context" to kale | astronomy is "has_context" to phoebe | astronomy is "has_context" to farbauti | astronomy is "has_context" to dwarf_planet | astronomy is "has_context" to lunar_cataclysm | astronomy is "related_to" to spherical | astronomy is "has_context" to lunar_mansion | astronomy is "has_context" to himalia | astronomy is "has_context" to bebhionn | astronomy is "has_context" to paaliaq | astronomy is "related_to" to universe | astronomy is "has_context" to thrymr | astronomy is "has_context" to callirrhoe | astronomy is "has_context" to kore | astronomy is "has_context" to mneme | astronomy is "has_context" to regio | astronomy is "has_context" to pallene | astronomy is "has_context" to halo | astronomy is "has_context" to fenrir | astronomy is "has_context" to charon | astronomy is "has_context" to aoede | astronomy is "has_context" to farside | astronomy is "has_context" to daphnis | astronomy is "has_context" to harpalyke | astronomy is "has_context, is_a" to selenology | astronomy is "has_context" to earthshine | astronomy is "has_context" to gibbous | astronomy is "has_context" to secondary_planet | astronomy is "has_context" to annulus | astronomy is "has_context" to ingress | astronomy is "has_context" to nix | astronomy is "has_context" to desdemona | astronomy is "has_context" to ring | astronomy is "has_context" to iapetus | astronomy is "has_context" to tarqeq | astronomy is "has_context" to leda | astronomy is "has_context" to theia | astronomy is "related_to" to stars | astronomy is "has_context" to lunistice | astronomy is "has_context" to chaldene | astronomy is "has_context" to jarnsaxa | astronomy is "has_context" to elara | astronomy is "has_context" to bergelmir | astronomy is "has_context" to circumjovial | astronomy is "has_context" to europan | astronomy is "has_context" to megaclite | astronomy is "has_context" to exomoon | astronomy is "has_context" to styx | astronomy is "has_context" to thebe | astronomy is "has_context" to orthosie | astronomy is "has_context" to satellite_planet | astronomy is "has_context" to rhea | astronomy is "has_context" to mundilfari | astronomy is "has_context" to eclipse | astronomy is "has_context" to ananke | astronomy is "has_context" to adrastea | astronomy is "related_to, has_context" to jupiter | astronomy is "has_context" to hati | astronomy is "has_context" to surtur | astronomy is "has_context" to dorsum | astronomy is "has_context" to sinope | astronomy is "has_context" to ganymede | astronomy is "has_context" to circle | astronomy is "has_context" to amalthea | astronomy is "has_context" to dichotomy | astronomy is "has_context" to sphere | astronomy is "has_context" to bestla | astronomy is "has_context" to kalyke | astronomy is "has_context" to apollo | astronomy is "has_context" to medicean | astronomy is "has_context" to europa | astronomy is "has_context" to kallichore | astronomy is "has_context" to solar_eclipse | astronomy is "has_context" to hyperyon | astronomy is "has_context" to lunar_distance | astronomy is "has_context" to aegir | astronomy is "has_context" to atlas | astronomy is "has_context" to digit | astronomy is "has_context" to chasma | astronomy is "has_context" to ymir | astronomy is "has_context" to arche | astronomy is "has_context" to rupes | astronomy is "has_context" to titan | astronomy is "has_context" to thyone | astronomy is "has_context" to polydeuces | astronomy is "has_context" to endymion | astronomy is "has_context" to euanthe | astronomy is "has_context" to tidal_locking | astronomy is "has_context" to zodiac | astronomy is "has_context" to oberon | astronomy is "has_context" to month_of_consecution | astronomy is "has_context" to eukelade | astronomy is "has_context" to luminosity | astronomy is "has_context" to euporie | astronomy is "has_context" to wane | astronomy is "has_context" to colongitude | astronomy is "has_context" to greip | astronomy is "has_context" to umbra | astronomy is "has_context" to kerberos | astronomy is "has_context" to dione | astronomy is "has_context" to terra | astronomy is "has_context" to pasiphaë | astronomy is "has_context" to kiviuq | astronomy is "has_context" to stellar | astronomy is "has_context" to skoll | astronomy is "has_context" to fornjot | astronomy is "has_context" to tethys | astronomy is "has_context" to calypso | astronomy is "has_context" to celestial_object | astronomy is "has_context" to tholin | astronomy is "has_context" to supermoon | astronomy is "has_context" to lunar_eclipse | astronomy is "has_context" to albiorix | astronomy is "has_context" to trojan | astronomy is "has_context" to lunar | astronomy is "has_context" to juliet | astronomy is "has_context" to lunar_phase | astronomy is "has_context" to libration | astronomy is "has_context" to syzygy | astronomy is "has_context" to planet | astronomy is "has_context" to radiant | astronomy is "has_context" to erinome | astronomy is "has_context" to namaka | astronomy is "has_context" to hunter's_moon | astronomy is "has_context" to thelxinoe | astronomy is "has_context" to selenography | astronomy is "has_context" to callisto | astronomy is "has_context" to aitne | astronomy is "has_context" to seleniscope | astronomy is "has_context" to precession | astronomy is "has_context" to eurydome | astronomy is "has_context" to kari | astronomy is "has_context" to cyllene | astronomy is "has_context" to tritonian | astronomy is "has_context" to linea | astronomy is "has_context" to janus | astronomy is "related_to" to space | astronomy is "has_context" to skathi | astronomy is "has_context" to mons | astronomy is "has_context" to erriapus | astronomy is "has_context" to bernoulli | astronomy is "has_context" to apocynthion | astronomy is "has_context" to sponde | astronomy is "has_context" to isonoe | astronomy is "has_context" to magmasphere | astronomy is "has_context" to planetary | astronomy is "has_context" to anthe | astronomy is "has_context" to helike | astronomy is "has_context" to suttungr | astronomy is "has_context" to celestial_body | astronomy is "has_context" to narvi | astronomy is "has_context" to taygete | astronomy is "has_context" to dysnomia | astronomy is "has_context" to crater | astronomy is "has_context" to hyperion | astronomy is "has_context" to hegemone | moon is "related_to" to iocaste | moon is "related_to" to lysithea | moon is "related_to, at_location" to hercules | moon is "related_to" to draconitic_month | moon is "related_to" to terminator | moon is "related_to" to tarvos | moon is "related_to" to lunar_occultation | moon is "related_to" to planum | moon is "related_to" to siamaq | moon is "related_to" to carme | moon is "related_to" to ariel | moon is "related_to" to hermippe | moon is "related_to" to annular_eclipse | moon is "related_to, distinct_from, antonym" to sun | moon is "related_to" to pasithee | moon is "related_to" to praxidike | moon is "related_to" to autonoe | moon is "related_to" to aegaeon | moon is "related_to" to nearside | moon is "related_to" to mercury | moon is "related_to" to hiʻiaka | moon is "related_to" to nutation | moon is "distinct_from, related_to" to star | moon is "related_to" to io | moon is "related_to" to hyrrokin | moon is "related_to" to herse | moon is "related_to" to ijiraq | moon is "related_to" to enceladus | moon is "derived_from" to moonlet | moon is "related_to" to valetudo | moon is "related_to" to loge | moon is "related_to" to triton | moon is "related_to" to kale | moon is "related_to" to phoebe | moon is "related_to" to farbauti | moon is "related_to" to dwarf_planet | moon is "related_to" to lunar_cataclysm | moon is "related_to" to spherical | moon is "related_to" to lunar_mansion | moon is "related_to" to himalia | moon is "related_to" to bebhionn | moon is "related_to" to paaliaq | moon is "at_location" to universe | moon is "related_to" to thrymr | moon is "related_to" to callirrhoe | moon is "related_to" to kore | moon is "related_to" to mneme | moon is "related_to" to regio | moon is "related_to" to pallene | moon is "related_to" to halo | moon is "related_to" to fenrir | moon is "related_to" to charon | moon is "related_to" to aoede | moon is "related_to" to farside | moon is "related_to" to daphnis | moon is "related_to" to harpalyke | moon is "related_to" to selenology | moon is "related_to" to earthshine | moon is "related_to" to gibbous | moon is "related_to, is_a" to secondary_planet | moon is "related_to" to annulus | moon is "related_to" to ingress | moon is "related_to" to nix | moon is "related_to" to desdemona | moon is "related_to" to ring | moon is "related_to" to iapetus | moon is "related_to" to tarqeq | moon is "related_to" to leda | moon is "related_to" to theia | moon is "related_to" to stars | moon is "related_to" to lunistice | moon is "related_to" to chaldene | moon is "related_to" to jarnsaxa | moon is "related_to" to elara | moon is "related_to" to bergelmir | moon is "related_to" to circumjovial | moon is "related_to" to europan | moon is "related_to" to megaclite | moon is "related_to, derived_from" to exomoon | moon is "related_to" to styx | moon is "related_to" to thebe | moon is "related_to" to orthosie | moon is "related_to" to satellite_planet | moon is "related_to" to rhea | moon is "related_to" to mundilfari | moon is "related_to" to eclipse | moon is "related_to" to ananke | moon is "related_to" to adrastea | moon is "related_to" to jupiter | moon is "related_to" to hati | moon is "related_to" to surtur | moon is "related_to" to dorsum | moon is "related_to" to sinope | moon is "related_to" to ganymede | moon is "related_to" to circle | moon is "related_to" to amalthea | moon is "related_to" to dichotomy | moon is "related_to, is_a" to sphere | moon is "related_to" to bestla | moon is "related_to" to kalyke | moon is "related_to" to apollo | moon is "related_to" to medicean | moon is "related_to" to europa | moon is "related_to" to kallichore | moon is "related_to" to solar_eclipse | moon is "related_to" to hyperyon | moon is "related_to" to lunar_distance | moon is "related_to" to aegir | moon is "at_location, related_to" to atlas | moon is "related_to" to digit | moon is "related_to" to chasma | moon is "related_to" to ymir | moon is "related_to" to arche | moon is "related_to" to rupes | moon is "related_to" to titan | moon is "related_to" to thyone | moon is "related_to" to polydeuces | moon is "related_to" to endymion | moon is "related_to" to euanthe | moon is "related_to" to tidal_locking | moon is "related_to" to zodiac | moon is "related_to" to oberon | moon is "related_to" to month_of_consecution | moon is "related_to" to eukelade | moon is "related_to" to luminosity | moon is "related_to" to euporie | moon is "related_to" to wane | moon is "related_to" to colongitude | moon is "related_to" to greip | moon is "related_to" to umbra | moon is "related_to" to kerberos | moon is "related_to" to dione | moon is "related_to" to terra | moon is "related_to" to pasiphaë | moon is "related_to" to kiviuq | moon is "related_to" to stellar | moon is "related_to" to skoll | moon is "related_to" to fornjot | moon is "related_to" to tethys | moon is "related_to" to calypso | moon is "related_to" to celestial_object | moon is "related_to" to tholin | moon is "derived_from" to supermoon | moon is "related_to" to lunar_eclipse | moon is "related_to" to albiorix | moon is "related_to" to trojan | moon is "related_to" to lunar | moon is "related_to" to juliet | moon is "related_to" to lunar_phase | moon is "related_to" to libration | moon is "related_to" to syzygy | moon is "distinct_from, related_to, is_a" to planet | moon is "has_property" to radiant | moon is "related_to" to erinome | moon is "related_to" to namaka | moon is "etymologically_related_to" to hunter's_moon | moon is "related_to" to thelxinoe | moon is "related_to" to selenography | moon is "related_to" to callisto | moon is "related_to" to aitne | moon is "related_to" to seleniscope | moon is "related_to" to precession | moon is "related_to" to eurydome | moon is "related_to" to kari | moon is "related_to" to cyllene | moon is "related_to" to tritonian | moon is "related_to" to linea | moon is "related_to" to janus | moon is "at_location, related_to" to space | moon is "related_to" to skathi | moon is "related_to" to mons | moon is "related_to" to erriapus | moon is "related_to" to bernoulli | moon is "related_to" to apocynthion | moon is "related_to" to sponde | moon is "related_to" to isonoe | moon is "related_to" to magmasphere | moon is "related_to" to planetary | moon is "related_to" to anthe | moon is "related_to" to helike | moon is "related_to" to suttungr | moon is "related_to" to celestial_body | moon is "related_to" to narvi | moon is "related_to" to taygete | moon is "related_to" to dysnomia | moon is "at_location" to crater | moon is "related_to" to hyperion | moon is "related_to" to hegemone</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1481,10 +1617,15 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
+          <t>star</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>astronomy is "has_context" to celestial_body | astronomy is "has_context" to scintillation | astronomy is "has_context, related_to" to star | twinkle is "has_context" to celestial_body | twinkle is "synonym" to scintillation | twinkle is "related_to" to star</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1515,10 +1656,15 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>sky</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>moon is "related_to" to bright | moon is "used_for, related_to" to sky | moon is "related_to" to celestial_body | moon is "related_to" to light | moon is "distinct_from, related_to" to star | twinkle is "related_to" to bright | twinkle is "related_to" to sky | twinkle is "has_context" to celestial_body | twinkle is "related_to" to light | twinkle is "related_to" to star</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1549,10 +1695,15 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
+          <t>fish</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>bait is "related_to" to fish | bait is "related_to" to water | bait is "related_to, has_prerequisite" to fishing | pond is "at_location, related_to, used_for" to fish | pond is "related_to, has_a" to water | pond is "used_for" to fishing</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1583,10 +1734,15 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
+          <t>fish</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>bait is "related_to" to fish | bait is "related_to" to water | tuna is "is_a, related_to" to fish | tuna is "at_location" to water</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1617,10 +1773,15 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
+          <t>fish</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>pond is "at_location, related_to, used_for" to fish | pond is "related_to" to trout | pond is "related_to, has_a" to water | tuna is "is_a, related_to" to fish | tuna is "related_to" to trout | tuna is "at_location" to water</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1643,6 +1804,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1673,10 +1835,15 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
+          <t>band_aid</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>bandaid is "form_of" to band_aid | wound is "related_to" to band_aid</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1707,10 +1874,15 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>trim is "is_a, related_to" to cut | wound is "related_to, is_a" to cut</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1741,10 +1913,15 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>ground</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
           <t>gravity is "related_to" to hill | gravity is "related_to" to down | gravity is "related_to, synonym" to grave | gravity is "related_to" to nadir | gravity is "related_to" to ground | low is "related_to" to hill | low is "related_to" to down | low is "related_to" to grave | low is "related_to" to nadir | low is "related_to" to ground</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1775,10 +1952,15 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>gravity is "related_to" to downward | gravity is "related_to, has_a" to earth | gravity is "related_to" to fall | gravity is "related_to" to hill | gravity is "related_to" to down | gravity is "related_to" to drop | gravity is "related_to" to ground | up is "antonym" to downward | up is "related_to" to earth | up is "antonym" to fall | up is "related_to" to hill | up is "related_to, distinct_from, antonym" to down | up is "antonym, related_to" to drop | up is "related_to" to ground</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1809,10 +1991,15 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>low is "distinct_from" to top | low is "related_to" to horizon | low is "related_to, antonym, distinct_from" to high | low is "related_to" to mood | low is "related_to" to admit | low is "related_to" to flow | low is "has_context" to uk | low is "related_to" to down | low is "related_to" to direction | low is "related_to" to gravity | low is "related_to" to bottom | low is "related_to" to hill | low is "related_to" to measure | low is "related_to" to altitude | low is "related_to" to fire | low is "related_to" to pitch | low is "related_to" to child | low is "related_to" to volume | low is "related_to" to feet | low is "has_context" to us | low is "related_to" to ground | low is "related_to" to quiet | up is "related_to" to top | up is "related_to" to horizon | up is "related_to" to high | up is "related_to" to mood | up is "related_to" to admit | up is "antonym" to flow | up is "has_context" to uk | up is "related_to, distinct_from, antonym" to down | up is "is_a, related_to" to direction | up is "related_to" to gravity | up is "distinct_from" to bottom | up is "related_to" to hill | up is "related_to" to measure | up is "related_to" to altitude | up is "related_to" to fire | up is "related_to" to pitch | up is "antonym" to child | up is "related_to" to volume | up is "related_to" to feet | up is "has_context" to us | up is "related_to" to ground | up is "related_to" to quiet</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1843,10 +2030,15 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>emergency is "related_to" to crash_dive | emergency is "causes_desire" to run | rapid is "related_to" to crash_dive | rapid is "related_to" to run</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1877,10 +2069,15 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>emergency is "causes_desire" to run | slow is "related_to" to run</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1911,10 +2108,15 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>rapid is "related_to" to rush | rapid is "related_to" to express | rapid is "related_to" to quickly | rapid is "related_to, similar_to" to fast | rapid is "related_to" to run | rapid is "related_to" to crawl | rapid is "related_to" to slack | rapid is "related_to" to motion | rapid is "related_to" to movement | rapid is "related_to" to speed | rapid is "synonym, related_to" to quick | slow is "antonym, related_to" to rush | slow is "antonym, distinct_from" to express | slow is "related_to" to quickly | slow is "related_to, distinct_from, antonym" to fast | slow is "related_to" to run | slow is "related_to" to crawl | slow is "synonym" to slack | slow is "related_to" to motion | slow is "related_to" to movement | slow is "related_to" to speed | slow is "antonym, related_to, distinct_from" to quick</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1945,10 +2147,15 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
+          <t>fight</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
           <t>brawl is "related_to, is_a" to fight | debate is "related_to" to fight</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1979,10 +2186,15 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
+          <t>fight</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t>brawl is "related_to, is_a" to fight | soldier is "used_for, desires, related_to" to fight</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2013,10 +2225,15 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
+          <t>fight</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
           <t>debate is "related_to" to fight | soldier is "used_for, desires, related_to" to fight</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2047,10 +2264,15 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
+          <t>animal</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>birds is "related_to" to animal | birds is "antonym" to reptile | birds is "has_property" to small | frog is "related_to" to animal | frog is "related_to" to reptile | frog is "related_to" to small</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2081,10 +2303,15 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
+          <t>bird</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>birds is "related_to" to fly | birds is "used_for, related_to, at_location" to sky | birds is "at_location" to air | birds is "at_location" to park | birds is "form_of, related_to" to bird | kite is "related_to, manner_of, capable_of" to fly | kite is "related_to, at_location" to sky | kite is "related_to, at_location" to air | kite is "at_location" to park | kite is "is_a, related_to" to bird</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2107,6 +2334,7 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2137,10 +2365,15 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>fingers</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>finger is "related_to, part_of, at_location" to hand | finger is "has_context" to slang | finger is "related_to, form_of" to fingers | finger is "related_to, synonym, distinct_from, antonym, is_a" to thumb | finger is "derived_from, related_to" to fingercot | finger is "related_to" to batting_glove | finger is "related_to" to hands | finger is "related_to" to half_glove | finger is "is_a" to covering | finger is "related_to" to five | glove is "related_to" to hand | glove is "has_context" to slang | glove is "related_to" to fingers | glove is "part_of" to thumb | glove is "related_to" to fingercot | glove is "is_a" to batting_glove | glove is "related_to" to hands | glove is "related_to" to half_glove | glove is "related_to" to covering | glove is "related_to" to five</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2171,10 +2404,15 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
+          <t>hand</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>finger is "related_to, part_of, at_location" to hand | finger is "related_to" to dupuytren's_contracture | finger is "related_to" to v_sign | finger is "is_a" to linear_unit | finger is "related_to" to roman_salute | finger is "synonym" to handle | finger is "related_to" to boutonniere_deformity | finger is "related_to" to fairy_clap | finger is "related_to, is_a" to body_part | finger is "related_to" to snap | finger is "related_to" to measure | finger is "related_to" to palmprint | finger is "related_to" to triradius | finger is "related_to" to swan_neck_deformity | finger is "related_to" to steal | finger is "related_to" to flat | palm is "related_to, part_of" to hand | palm is "related_to" to dupuytren's_contracture | palm is "related_to" to v_sign | palm is "is_a" to linear_unit | palm is "related_to" to roman_salute | palm is "synonym" to handle | palm is "related_to" to boutonniere_deformity | palm is "related_to" to fairy_clap | palm is "is_a" to body_part | palm is "related_to" to snap | palm is "related_to" to measure | palm is "derived_from, related_to" to palmprint | palm is "related_to" to triradius | palm is "related_to" to swan_neck_deformity | palm is "related_to" to steal | palm is "related_to" to flat</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2205,10 +2443,15 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
+          <t>hand</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
           <t>glove is "related_to" to hand | glove is "part_of, related_to, at_location" to finger | glove is "etymologically_related_to" to loof | palm is "related_to, part_of" to hand | palm is "related_to" to finger | palm is "synonym, related_to" to loof</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2239,10 +2482,15 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
+          <t>sleeping</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>bed is "at_location" to scary | bed is "at_location, related_to, has_prerequisite" to sleeping | bed is "related_to" to nighttime | bed is "related_to" to four | bed is "related_to" to like | bed is "related_to" to night | darkness is "has_property" to scary | darkness is "has_prerequisite" to sleeping | darkness is "related_to" to nighttime | darkness is "related_to" to four | darkness is "related_to" to like | darkness is "related_to" to night</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2273,10 +2521,15 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>bed is "related_to, used_for, antonym" to sleep | bed is "related_to" to sleeper | sedative is "related_to, causes_desire" to sleep | sedative is "related_to" to sleeper</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2299,6 +2552,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,10 +2583,15 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
+          <t>talk</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
           <t>discuss is "related_to" to moot | discuss is "related_to" to chit_chat | discuss is "related_to" to talk | gossip is "related_to" to moot | gossip is "related_to" to chit_chat | gossip is "is_a, related_to" to talk</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2363,10 +2622,15 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
+          <t>talk</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
           <t>discuss is "related_to" to communicate | discuss is "related_to" to talk | telephone is "is_a, used_for" to communicate | telephone is "related_to" to talk</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2397,10 +2661,15 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
+          <t>talk</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
           <t>gossip is "used_for" to talking | gossip is "is_a, related_to" to talk | telephone is "used_for, related_to" to talking | telephone is "related_to" to talk</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2423,6 +2692,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2453,10 +2723,15 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
+          <t>fang</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
           <t>fangs is "form_of, related_to" to fang | wolf is "related_to" to fang</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2479,6 +2754,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2501,6 +2777,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2523,6 +2800,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2545,6 +2823,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2575,10 +2854,15 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
+          <t>bible</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
           <t>dictionary is "related_to" to grammar | dictionary is "is_a, related_to" to book | dictionary is "related_to" to section | dictionary is "related_to" to bible | dictionary is "related_to" to like | verse is "related_to" to grammar | verse is "related_to" to book | verse is "related_to" to section | verse is "related_to" to bible | verse is "related_to" to like</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2609,10 +2893,15 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
+          <t>lexicon</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
           <t>dictionary is "related_to" to glossary | dictionary is "related_to" to lexical | dictionary is "related_to, is_a" to wordbook | dictionary is "related_to" to lexiconic | dictionary is "related_to, synonym" to lexicon | dictionary is "related_to" to language | dictionary is "related_to, part_of" to word | dictionary is "related_to" to idioticon | vocabulary is "synonym" to glossary | vocabulary is "related_to" to lexical | vocabulary is "related_to, is_a" to wordbook | vocabulary is "related_to" to lexiconic | vocabulary is "related_to, similar_to, synonym" to lexicon | vocabulary is "related_to, part_of" to language | vocabulary is "related_to" to word | vocabulary is "synonym" to idioticon</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2635,6 +2924,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2665,10 +2955,15 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
+          <t>faulty</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
           <t>fault is "related_to" to perfect | fault is "related_to" to amiss | fault is "derived_from, related_to" to faulty | fault is "synonym, related_to" to mistake | incorrect is "distinct_from" to perfect | incorrect is "related_to" to amiss | incorrect is "related_to, synonym" to faulty | incorrect is "related_to" to mistake</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2691,6 +2986,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2721,10 +3017,15 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
+          <t>wrong</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
           <t>incorrect is "antonym" to right | incorrect is "synonym, related_to" to wrong | unjust is "related_to" to right | unjust is "synonym, related_to" to wrong</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2736,7 +3037,8 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
         <is>
           <t>62.5%</t>
         </is>
